--- a/Automation Report.xlsx
+++ b/Automation Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5035C7B-8079-42BC-B358-C84A3D1C2297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498E3434-3665-4F32-B0C5-26B52BF67649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="84">
   <si>
     <t>TC ID</t>
   </si>
@@ -665,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -1593,6 +1593,50 @@
         <v>44687.381724537037</v>
       </c>
     </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
+        <v>91111</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="3">
+        <v>44687.489490740743</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>44687.497615740744</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
